--- a/doc/Ranking transcription (Whole-scan Experiments).xlsx
+++ b/doc/Ranking transcription (Whole-scan Experiments).xlsx
@@ -8,22 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serenekim/Desktop/PhD/img-analysis_seorin_project/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09BBEBA-8091-C947-BC3C-85A5350CBD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287F1F9D-0089-4240-8393-78B16F086B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille 2" sheetId="1" r:id="rId1"/>
-    <sheet name="Doc1" sheetId="2" r:id="rId2"/>
-    <sheet name="Doc2" sheetId="3" r:id="rId3"/>
-    <sheet name="Doc3" sheetId="4" r:id="rId4"/>
-    <sheet name="Doc4" sheetId="5" r:id="rId5"/>
-    <sheet name="Doc5" sheetId="6" r:id="rId6"/>
-    <sheet name="Doc6" sheetId="7" r:id="rId7"/>
-    <sheet name="Doc7" sheetId="8" r:id="rId8"/>
-    <sheet name="Doc8" sheetId="9" r:id="rId9"/>
-    <sheet name="Doc9" sheetId="10" r:id="rId10"/>
-    <sheet name="Doc10" sheetId="11" r:id="rId11"/>
+    <sheet name="Averages" sheetId="21" r:id="rId1"/>
+    <sheet name="Doc1" sheetId="1" r:id="rId2"/>
+    <sheet name="Doc2" sheetId="2" r:id="rId3"/>
+    <sheet name="Doc3" sheetId="3" r:id="rId4"/>
+    <sheet name="Doc4" sheetId="4" r:id="rId5"/>
+    <sheet name="Doc5" sheetId="5" r:id="rId6"/>
+    <sheet name="Doc6" sheetId="6" r:id="rId7"/>
+    <sheet name="Doc7" sheetId="7" r:id="rId8"/>
+    <sheet name="Doc8" sheetId="8" r:id="rId9"/>
+    <sheet name="Doc9" sheetId="9" r:id="rId10"/>
+    <sheet name="Doc10" sheetId="10" r:id="rId11"/>
+    <sheet name="Doc11" sheetId="11" r:id="rId12"/>
+    <sheet name="Doc12" sheetId="12" r:id="rId13"/>
+    <sheet name="Doc13" sheetId="13" r:id="rId14"/>
+    <sheet name="Doc14" sheetId="14" r:id="rId15"/>
+    <sheet name="Doc15" sheetId="15" r:id="rId16"/>
+    <sheet name="Doc16" sheetId="16" r:id="rId17"/>
+    <sheet name="Doc17" sheetId="17" r:id="rId18"/>
+    <sheet name="Doc18" sheetId="18" r:id="rId19"/>
+    <sheet name="Doc19" sheetId="19" r:id="rId20"/>
+    <sheet name="Doc20" sheetId="20" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +58,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -94,32 +104,225 @@
 </comments>
 </file>
 
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>repetition of the example
+	-Serene Kim</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>repetition of the example
+	-Serene Kim</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>names are quite correct but other than that, nothing
+	-Serene Kim</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>repetition of the example
+	-Serene Kim</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>repetition of the example
+	-Serene Kim</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>repeating the example at the end
+	-Serene Kim</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>repetition of the example?
+	-Serene Kim</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>repetition of the example
+	-Serene Kim</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1300-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>repetition of the example
+	-Serene Kim
+For those I commented "repetition of the example", the outputs look the same
+	-Serene Kim</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1300-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>repeating the example at the end
+	-Serene Kim</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">input == example
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">	-Serene Kim</t>
+          <t>input == example
+	-Serene Kim</t>
         </r>
       </text>
     </comment>
@@ -133,7 +336,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -157,7 +360,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -181,7 +384,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -199,13 +402,179 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>repetition of the example?
+	-Serene Kim</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>no header
+	-Julien Baudru</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>repetition of the example
+	-Serene Kim</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>no header
+	-Julien Baudru</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>repetition of the example?
+	-Serene Kim</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>repetition of the example
+	-Serene Kim</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>repetition of the example?
+	-Serene Kim</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>repeating the example at the end
+	-Serene Kim</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>repetition of the example?
+	-Serene Kim</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="19">
   <si>
     <t>Method</t>
   </si>
   <si>
-    <t>Average Score</t>
+    <t>Rank (1: Very bad - 5: Very good)</t>
   </si>
   <si>
     <t>gpt simple</t>
@@ -250,7 +619,13 @@
     <t>TrOCR</t>
   </si>
   <si>
-    <t>Rank (1: Very bad - 5: Very good)</t>
+    <t>Average Score</t>
+  </si>
+  <si>
+    <t>% Removed Doc2</t>
+  </si>
+  <si>
+    <t>% Removed Doc2&amp;3</t>
   </si>
 </sst>
 </file>
@@ -291,6 +666,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -331,14 +707,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,152 +930,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FD31B2-C216-0848-89D4-303D29E28DD6}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="220" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <f>AVERAGE('Doc1:Doc10'!B2:C2)</f>
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <f>AVERAGE('Doc1:Doc10'!B3:C3)</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <f>AVERAGE('Doc1:Doc10'!B4:C4)</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <f>AVERAGE('Doc1:Doc20'!B2:C2)</f>
+        <v>1.075</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <f>AVERAGE('Doc1:Doc20'!B3:C3)</f>
+        <v>2.125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <f>AVERAGE('Doc1:Doc20'!B4:C4)</f>
+        <v>1.325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <f>AVERAGE('Doc1:Doc10'!B5:C5)</f>
-        <v>2.5499999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="3">
+        <f>AVERAGE('Doc1:Doc20'!B5:C5)</f>
+        <v>2.2749999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <f>AVERAGE('Doc1:Doc10'!B6:C6)</f>
-        <v>2.3888888888888888</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="3">
+        <f>AVERAGE('Doc1:Doc20'!B6:C6)</f>
+        <v>1.6578947368421053</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6">
-        <f>AVERAGE('Doc1:Doc10'!B7:C7)</f>
-        <v>3.8888888888888888</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="3">
+        <f>AVERAGE('Doc1:Doc20'!B7:C7)</f>
+        <v>3.5526315789473686</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <f>AVERAGE('Doc1:Doc10'!B8:C8)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="3">
+        <f>AVERAGE('Doc1:Doc20'!B8:C8)</f>
+        <v>1.5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6">
-        <f>AVERAGE('Doc1:Doc10'!B9:C9)</f>
-        <v>4.4375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="3">
+        <f>AVERAGE('Doc1:Doc20'!B9:C9)</f>
+        <v>4.0555555555555554</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
-        <f>AVERAGE('Doc1:Doc10'!B10:C10)</f>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="3">
+        <f>AVERAGE('Doc1:Doc20'!B10:C10)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
-        <f>AVERAGE('Doc1:Doc10'!B11:C11)</f>
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="3">
+        <f>AVERAGE('Doc1:Doc20'!B11:C11)</f>
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
-        <f>AVERAGE('Doc1:Doc10'!B12:C12)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="3">
+        <f>AVERAGE('Doc1:Doc20'!B12:C12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
-        <f>AVERAGE('Doc1:Doc10'!B13:C13)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="3">
+        <f>AVERAGE('Doc1:Doc20'!B13:C13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
-        <f>AVERAGE('Doc1:Doc10'!B14:C14)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="B14" s="3">
+        <f>AVERAGE('Doc1:Doc20'!B14:C14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
-        <f>AVERAGE('Doc1:Doc10'!B15:C15)</f>
+      <c r="B15" s="3">
+        <f>AVERAGE('Doc1:Doc20'!B15:C15)</f>
         <v>1</v>
       </c>
     </row>
@@ -708,7 +1095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -726,216 +1113,216 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
         <f t="shared" ref="D2:D15" si="0">AVERAGE(B2:C2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -958,6 +1345,257 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D15" si="0">AVERAGE(B2:C2)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:C16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFE67C73"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -976,216 +1614,1973 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
         <f t="shared" ref="D2:D15" si="0">AVERAGE(B2:C2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:C16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFE67C73"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D15" si="0">AVERAGE(B2:C2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:C16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFE67C73"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D15" si="0">AVERAGE(B2:C2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:C16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFE67C73"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D15" si="0">AVERAGE(B2:C2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:C16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFE67C73"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D15" si="0">AVERAGE(B2:C2)</f>
+        <v>1</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:C16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFE67C73"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D15" si="0">AVERAGE(B2:C2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
     </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:C16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFE67C73"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D15" si="0">AVERAGE(B2:C2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:C16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFE67C73"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D15" si="0">AVERAGE(B2:C2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1209,7 +3604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1227,216 +3622,718 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
         <f t="shared" ref="D2:D15" si="0">AVERAGE(B2:C2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:C16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFE67C73"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D15" si="0">AVERAGE(B2:C2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:C16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFE67C73"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D15" si="0">AVERAGE(B2:C2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1460,14 +4357,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A4" zoomScale="200" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1480,66 +4377,66 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
         <f t="shared" ref="D2:D15" si="0">AVERAGE(B2:C2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
@@ -1550,7 +4447,7 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
@@ -1558,7 +4455,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
@@ -1566,7 +4463,7 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
@@ -1574,94 +4471,94 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1685,14 +4582,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1705,202 +4602,202 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
         <f t="shared" ref="D2:D15" si="0">AVERAGE(B2:C2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1923,7 +4820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1941,216 +4838,216 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
         <f t="shared" ref="D2:D15" si="0">AVERAGE(B2:C2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2173,7 +5070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2191,216 +5088,216 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
         <f t="shared" ref="D2:D15" si="0">AVERAGE(B2:C2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2423,7 +5320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2441,216 +5338,216 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
         <f t="shared" ref="D2:D15" si="0">AVERAGE(B2:C2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2674,7 +5571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2692,216 +5589,216 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
         <f t="shared" ref="D2:D15" si="0">AVERAGE(B2:C2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
         <v>5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2924,7 +5821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2942,216 +5839,216 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
         <f t="shared" ref="D2:D15" si="0">AVERAGE(B2:C2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>

--- a/doc/Ranking transcription (Whole-scan Experiments).xlsx
+++ b/doc/Ranking transcription (Whole-scan Experiments).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serenekim/Desktop/PhD/img-analysis_seorin_project/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287F1F9D-0089-4240-8393-78B16F086B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE73DAD-48D6-CA45-9B77-D50696CF36BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -695,7 +695,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -703,11 +703,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -716,6 +742,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -934,7 +962,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -978,7 +1006,7 @@
         <v>1.325</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -991,7 +1019,7 @@
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="8">
         <f>AVERAGE('Doc1:Doc20'!B6:C6)</f>
         <v>1.6578947368421053</v>
       </c>
@@ -999,11 +1027,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="9">
         <f>AVERAGE('Doc1:Doc20'!B7:C7)</f>
         <v>3.5526315789473686</v>
       </c>
@@ -1015,19 +1043,19 @@
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="8">
         <f>AVERAGE('Doc1:Doc20'!B8:C8)</f>
-        <v>1.5</v>
+        <v>1.5277777777777777</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="9">
         <f>AVERAGE('Doc1:Doc20'!B9:C9)</f>
         <v>4.0555555555555554</v>
       </c>
@@ -3610,7 +3638,7 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="186" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5827,7 +5855,9 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5941,11 +5971,11 @@
         <v>2</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/doc/Ranking transcription (Whole-scan Experiments).xlsx
+++ b/doc/Ranking transcription (Whole-scan Experiments).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serenekim/Desktop/PhD/img-analysis_seorin_project/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE73DAD-48D6-CA45-9B77-D50696CF36BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EE8547-570D-F548-9F42-6812CAB6743F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="1480" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Averages" sheetId="21" r:id="rId1"/>
@@ -65,6 +65,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>very good but it doesn't transcribe the header, which might result in a smaller BLEU and bigger CER
@@ -79,6 +80,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>i did with the ones in zero-shot_simple folder
@@ -93,6 +95,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>some words of the header are correctly read but others are not
@@ -117,6 +120,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>repetition of the example
@@ -131,6 +135,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>repetition of the example
@@ -155,6 +160,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>names are quite correct but other than that, nothing
@@ -169,6 +175,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>repetition of the example
@@ -193,6 +200,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>repetition of the example
@@ -207,6 +215,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>repeating the example at the end
@@ -231,6 +240,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>repetition of the example?
@@ -255,6 +265,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>repetition of the example
@@ -279,6 +290,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>repetition of the example
@@ -295,6 +307,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>repeating the example at the end
@@ -319,6 +332,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>input == example
@@ -343,6 +357,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>names are quite accurate although that's all it has
@@ -367,6 +382,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>some of the names exist
@@ -391,6 +407,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>some names are okay
@@ -415,6 +432,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>repetition of the example?
@@ -429,6 +447,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>no header
@@ -443,6 +462,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>repetition of the example
@@ -457,6 +477,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>no header
@@ -481,6 +502,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>repetition of the example?
@@ -495,6 +517,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>repetition of the example
@@ -519,6 +542,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>repetition of the example?
@@ -533,6 +557,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>repeating the example at the end
@@ -557,6 +582,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>repetition of the example?
@@ -569,7 +595,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="31">
   <si>
     <t>Method</t>
   </si>
@@ -626,6 +652,42 @@
   </si>
   <si>
     <t>% Removed Doc2&amp;3</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>gpt_simple</t>
+  </si>
+  <si>
+    <t>claude_simple</t>
+  </si>
+  <si>
+    <t>gpt_complex</t>
+  </si>
+  <si>
+    <t>claude_complex</t>
+  </si>
+  <si>
+    <t>gpt_one_example</t>
+  </si>
+  <si>
+    <t>claude_one_example</t>
+  </si>
+  <si>
+    <t>gpt_two_example</t>
+  </si>
+  <si>
+    <t>claude_two_example</t>
+  </si>
+  <si>
+    <t>gpt_refine_complex</t>
+  </si>
+  <si>
+    <t>claude_refine_complex</t>
+  </si>
+  <si>
+    <t>Pytesseract</t>
   </si>
 </sst>
 </file>
@@ -695,7 +757,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -703,47 +765,30 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -962,7 +1007,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -972,147 +1017,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="C1" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="9">
         <f>AVERAGE('Doc1:Doc20'!B2:C2)</f>
         <v>1.075</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="9">
         <f>AVERAGE('Doc1:Doc20'!B3:C3)</f>
         <v>2.125</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9">
         <f>AVERAGE('Doc1:Doc20'!B4:C4)</f>
         <v>1.325</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="9">
         <f>AVERAGE('Doc1:Doc20'!B5:C5)</f>
         <v>2.2749999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="9">
         <f>AVERAGE('Doc1:Doc20'!B6:C6)</f>
         <v>1.6578947368421053</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="9">
         <f>AVERAGE('Doc1:Doc20'!B7:C7)</f>
         <v>3.5526315789473686</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="A8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="9">
         <f>AVERAGE('Doc1:Doc20'!B8:C8)</f>
         <v>1.5277777777777777</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>9</v>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="9">
         <f>AVERAGE('Doc1:Doc20'!B9:C9)</f>
         <v>4.0555555555555554</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="9">
         <f>AVERAGE('Doc1:Doc20'!B10:C10)</f>
         <v>1.4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="A11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="9">
         <f>AVERAGE('Doc1:Doc20'!B11:C11)</f>
         <v>2.875</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="9">
         <f>AVERAGE('Doc1:Doc20'!B12:C12)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="A13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="9">
         <f>AVERAGE('Doc1:Doc20'!B13:C13)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="9">
         <f>AVERAGE('Doc1:Doc20'!B14:C14)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="9">
         <f>AVERAGE('Doc1:Doc20'!B15:C15)</f>
         <v>1</v>
       </c>
@@ -5856,7 +5904,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
